--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1296.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1296.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8989794480705801</v>
+        <v>1.120310664176941</v>
       </c>
       <c r="B1">
-        <v>1.927354359616302</v>
+        <v>2.2652268409729</v>
       </c>
       <c r="C1">
-        <v>5.65144631750145</v>
+        <v>10.84642601013184</v>
       </c>
       <c r="D1">
-        <v>2.725573041888244</v>
+        <v>1.801810503005981</v>
       </c>
       <c r="E1">
-        <v>1.371481747579476</v>
+        <v>1.288565158843994</v>
       </c>
     </row>
   </sheetData>
